--- a/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082C07A2-4D4E-4A4C-A0F8-8253EC48000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A89DB31-8F0F-47FB-B5BB-6DAC5F08CD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="410">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1256,6 +1256,15 @@
   </si>
   <si>
     <t>7/20,27</t>
+  </si>
+  <si>
+    <t>10/18,21</t>
+  </si>
+  <si>
+    <t>9/5,6,27,28</t>
+  </si>
+  <si>
+    <t>11/23,28</t>
   </si>
 </sst>
 </file>
@@ -4004,7 +4013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4036,9 +4045,9 @@
   <dimension ref="A2:K564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A543" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A555" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="E555" sqref="E555"/>
+      <selection pane="bottomLeft" activeCell="B565" sqref="B565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4199,7 +4208,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.847999999999836</v>
+        <v>23.847999999999836</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4209,7 +4218,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>136.25</v>
+        <v>127.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9524,7 +9533,7 @@
       <c r="D239" s="42"/>
       <c r="E239" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.847999999999836</v>
+        <v>23.847999999999836</v>
       </c>
       <c r="F239" s="15"/>
       <c r="G239" s="41" t="str">
@@ -9534,7 +9543,7 @@
       <c r="H239" s="42"/>
       <c r="I239" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>136.25</v>
+        <v>127.25</v>
       </c>
       <c r="J239" s="12"/>
       <c r="K239" s="15"/>
@@ -14793,7 +14802,7 @@
       <c r="H466" s="39"/>
       <c r="I466" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>136.25</v>
+        <v>127.25</v>
       </c>
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
@@ -16860,7 +16869,9 @@
         <f t="shared" si="13"/>
         <v>44774</v>
       </c>
-      <c r="B558" s="20"/>
+      <c r="B558" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C558" s="13">
         <v>1.25</v>
       </c>
@@ -16871,17 +16882,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H558" s="39"/>
+      <c r="H558" s="39">
+        <v>1</v>
+      </c>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="K558" s="48">
+        <v>44795</v>
+      </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f t="shared" si="13"/>
         <v>44805</v>
       </c>
-      <c r="B559" s="20"/>
+      <c r="B559" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="C559" s="13">
         <v>1.25</v>
       </c>
@@ -16892,17 +16909,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H559" s="39"/>
+      <c r="H559" s="39">
+        <v>4</v>
+      </c>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
+      <c r="K559" s="20" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f t="shared" si="13"/>
         <v>44835</v>
       </c>
-      <c r="B560" s="20"/>
+      <c r="B560" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C560" s="13">
         <v>1.25</v>
       </c>
@@ -16913,17 +16936,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H560" s="39"/>
+      <c r="H560" s="39">
+        <v>2</v>
+      </c>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="20" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" si="13"/>
         <v>44866</v>
       </c>
-      <c r="B561" s="20"/>
+      <c r="B561" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C561" s="13">
         <v>1.25</v>
       </c>
@@ -16934,21 +16963,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H561" s="39"/>
+      <c r="H561" s="39">
+        <v>2</v>
+      </c>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20"/>
+      <c r="K561" s="20" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <f t="shared" si="13"/>
         <v>44896</v>
       </c>
-      <c r="B562" s="20"/>
+      <c r="B562" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C562" s="13">
         <v>1.25</v>
       </c>
-      <c r="D562" s="39"/>
+      <c r="D562" s="39">
+        <v>1</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13">
@@ -16958,7 +16995,9 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="48">
+        <v>44916</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="47" t="s">
@@ -16967,20 +17006,14 @@
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
       <c r="D563" s="39"/>
-      <c r="E563" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.847999999999836</v>
-      </c>
+      <c r="E563" s="9"/>
       <c r="F563" s="20"/>
       <c r="G563" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H563" s="39"/>
-      <c r="I563" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>136.25</v>
-      </c>
+      <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
@@ -16989,7 +17022,9 @@
         <f>EDATE(A562,1)</f>
         <v>44927</v>
       </c>
-      <c r="B564" s="20"/>
+      <c r="B564" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C564" s="13">
         <v>1.25</v>
       </c>
@@ -17003,7 +17038,9 @@
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="20" t="s">
+        <v>378</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="422">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1297,6 +1297,9 @@
   </si>
   <si>
     <t>10/4,14/2023</t>
+  </si>
+  <si>
+    <t>9/25,29/2023</t>
   </si>
 </sst>
 </file>
@@ -3697,8 +3700,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K633" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K633"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K635"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4074,12 +4077,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K633"/>
+  <dimension ref="A2:K635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A566" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K583" sqref="K583"/>
+      <selection pane="bottomLeft" activeCell="K586" sqref="K586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,7 +4245,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.160999999999767</v>
+        <v>18.410999999999767</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4252,7 +4255,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>118.25</v>
+        <v>117.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17190,13 +17193,15 @@
       <c r="B583" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C583" s="13"/>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H583" s="39">
         <v>2</v>
@@ -17208,10 +17213,10 @@
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B584" s="20"/>
+      <c r="A584" s="40"/>
+      <c r="B584" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
@@ -17220,18 +17225,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H584" s="39"/>
+      <c r="H584" s="39">
+        <v>2</v>
+      </c>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20"/>
+      <c r="K584" s="20" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B585" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B585" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C585" s="13"/>
-      <c r="D585" s="39"/>
+      <c r="D585" s="39">
+        <v>1</v>
+      </c>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
       <c r="G585" s="13" t="str">
@@ -17241,15 +17254,19 @@
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B586" s="20"/>
+      <c r="A586" s="40"/>
+      <c r="B586" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C586" s="13"/>
-      <c r="D586" s="39"/>
+      <c r="D586" s="39">
+        <v>1</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
       <c r="G586" s="13" t="str">
@@ -17259,11 +17276,13 @@
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
+      <c r="K586" s="48">
+        <v>45253</v>
+      </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17281,7 +17300,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17298,7 +17317,9 @@
       <c r="K588" s="20"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="40"/>
+      <c r="A589" s="40">
+        <v>45323</v>
+      </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
@@ -17314,7 +17335,9 @@
       <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40"/>
+      <c r="A590" s="40">
+        <v>45352</v>
+      </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
       <c r="D590" s="39"/>
@@ -18002,20 +18025,52 @@
       <c r="K632" s="20"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="49"/>
-      <c r="B633" s="15"/>
-      <c r="C633" s="41"/>
-      <c r="D633" s="42"/>
+      <c r="A633" s="40"/>
+      <c r="B633" s="20"/>
+      <c r="C633" s="13"/>
+      <c r="D633" s="39"/>
       <c r="E633" s="9"/>
-      <c r="F633" s="15"/>
-      <c r="G633" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H633" s="42"/>
+      <c r="F633" s="20"/>
+      <c r="G633" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H633" s="39"/>
       <c r="I633" s="9"/>
-      <c r="J633" s="12"/>
-      <c r="K633" s="15"/>
+      <c r="J633" s="11"/>
+      <c r="K633" s="20"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="40"/>
+      <c r="B634" s="20"/>
+      <c r="C634" s="13"/>
+      <c r="D634" s="39"/>
+      <c r="E634" s="9"/>
+      <c r="F634" s="20"/>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H634" s="39"/>
+      <c r="I634" s="9"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="20"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="49"/>
+      <c r="B635" s="15"/>
+      <c r="C635" s="41"/>
+      <c r="D635" s="42"/>
+      <c r="E635" s="9"/>
+      <c r="F635" s="15"/>
+      <c r="G635" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H635" s="42"/>
+      <c r="I635" s="9"/>
+      <c r="J635" s="12"/>
+      <c r="K635" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
